--- a/20170917-broadband/builds/development/data/_raw/print_graphics.xlsx
+++ b/20170917-broadband/builds/development/data/_raw/print_graphics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="25800" windowHeight="17160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="25800" windowHeight="17160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stateRankings" sheetId="2" r:id="rId1"/>
@@ -377,7 +377,7 @@
     <t>broadband_pct</t>
   </si>
   <si>
-    <t>Source: American Community Survey Computer and Internet Usage in the United States 2015</t>
+    <t>Source: American Community Survey, Computer and Internet Usage in the United States</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1776,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
